--- a/public/templates/template_import_bkp_otomatis.xlsx
+++ b/public/templates/template_import_bkp_otomatis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KUN\Downloads\apk-bkp\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60529CC-C27B-40ED-BE5A-066B60C3328E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5224A13-A31A-4B84-8E57-776D030D07F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>nama_kecamatan</t>
   </si>
@@ -66,23 +66,29 @@
     <t>status_sekolah</t>
   </si>
   <si>
-    <t>Abung Surakarta</t>
-  </si>
-  <si>
-    <t>1 TATAKARYA</t>
-  </si>
-  <si>
-    <t>Sigit, S.Pd.</t>
-  </si>
-  <si>
-    <t>Agung, S.Pd.</t>
+    <t>SUNGKAI JAYA</t>
+  </si>
+  <si>
+    <t>1 SRIJAYA</t>
+  </si>
+  <si>
+    <t>catatan</t>
+  </si>
+  <si>
+    <t>kolom kecamatan diisi dengan huruf kapital, kolom sd diisi dengan nama sekolah tanpa SD/SMP/SMP diawal kalimatnya, tipe sekolah hanya dapat diisi dengan SD, SMP, SMA dengan huruf kapital semuanya, kolom status sekolah dapat diisi dengan Negeri atau Swasta, dan huruf kapital hanya diawal kalimat,  nama kepala sekolah dan bendahara dapat menggunakan gelar dan semua kalimat KAPITAL, nip berupa angka jika ujung berubah bisa ditambahkan karakter ' diawalnya, nama kegiatan wajib diisi dahulu secara manual diaplikasi dan harus sesuai di aplikasi dan excelnya, untuk jumlah siswa diisikan dengan angka saja</t>
+  </si>
+  <si>
+    <t>SIGIT, S.PD.</t>
+  </si>
+  <si>
+    <t>AGUNG, S.PD.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +101,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -127,6 +141,12 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,23 +428,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +480,11 @@
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -470,13 +498,13 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3">
         <v>1234567898765</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3">
         <v>1234567898765</v>
@@ -487,8 +515,50 @@
       <c r="J2" s="2">
         <v>10</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K2:K11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>